--- a/artfynd/A 60019-2022.xlsx
+++ b/artfynd/A 60019-2022.xlsx
@@ -6205,10 +6205,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67923662</v>
+        <v>67923553</v>
       </c>
       <c r="B48" t="n">
-        <v>5113</v>
+        <v>101680</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6221,43 +6221,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100526</v>
+        <v>222412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>710873.757877128</v>
+        <v>710754.9979885226</v>
       </c>
       <c r="R48" t="n">
-        <v>6654798.971570624</v>
+        <v>6654845.858781069</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6326,10 +6320,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67923553</v>
+        <v>67923090</v>
       </c>
       <c r="B49" t="n">
-        <v>101680</v>
+        <v>90671</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6338,41 +6332,48 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222412</v>
+        <v>4368</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>710754.9979885226</v>
+        <v>710737.8015434174</v>
       </c>
       <c r="R49" t="n">
-        <v>6654845.858781069</v>
+        <v>6655085.161134608</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6417,12 +6418,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6441,10 +6448,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67923090</v>
+        <v>67923474</v>
       </c>
       <c r="B50" t="n">
-        <v>90671</v>
+        <v>90645</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6457,21 +6464,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4368</v>
+        <v>4361</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6491,10 +6498,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>710737.8015434174</v>
+        <v>710749.9838473836</v>
       </c>
       <c r="R50" t="n">
-        <v>6655085.161134608</v>
+        <v>6654959.947919866</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6569,10 +6576,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67923474</v>
+        <v>67923469</v>
       </c>
       <c r="B51" t="n">
-        <v>90645</v>
+        <v>93235</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6581,48 +6588,49 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4361</v>
+        <v>210</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>kapslar</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>710749.9838473836</v>
+        <v>710714.9107949209</v>
       </c>
       <c r="R51" t="n">
-        <v>6654959.947919866</v>
+        <v>6654966.972714037</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6669,7 +6677,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
+          <t>På gammal rötskadad granlåga.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6678,7 +6686,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6697,10 +6704,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67923469</v>
+        <v>67922726</v>
       </c>
       <c r="B52" t="n">
-        <v>93235</v>
+        <v>88896</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6709,49 +6716,48 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>210</v>
+        <v>720</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>kapslar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>710714.9107949209</v>
+        <v>710591.0552980765</v>
       </c>
       <c r="R52" t="n">
-        <v>6654966.972714037</v>
+        <v>6655059.218906204</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6798,7 +6804,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>På gammal rötskadad granlåga.</t>
+          <t>I gammal barrblandskog nära hyggeskant.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6807,6 +6813,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6825,7 +6832,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67922726</v>
+        <v>67923266</v>
       </c>
       <c r="B53" t="n">
         <v>88896</v>
@@ -6860,7 +6867,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6875,10 +6882,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>710591.0552980765</v>
+        <v>710774.9430098746</v>
       </c>
       <c r="R53" t="n">
-        <v>6655059.218906204</v>
+        <v>6654997.994331097</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6925,7 +6932,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>I gammal barrblandskog nära hyggeskant.</t>
+          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6953,10 +6960,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>67923266</v>
+        <v>67923157</v>
       </c>
       <c r="B54" t="n">
-        <v>88896</v>
+        <v>90661</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6969,26 +6976,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -7003,10 +7010,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>710774.9430098746</v>
+        <v>710778.1940088882</v>
       </c>
       <c r="R54" t="n">
-        <v>6654997.994331097</v>
+        <v>6655037.809205553</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -7081,10 +7088,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>67923157</v>
+        <v>67923056</v>
       </c>
       <c r="B55" t="n">
-        <v>90661</v>
+        <v>98520</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7093,48 +7100,41 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2058</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>710778.1940088882</v>
+        <v>710647.7756487913</v>
       </c>
       <c r="R55" t="n">
-        <v>6655037.809205553</v>
+        <v>6655033.866605811</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -7179,18 +7179,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7209,10 +7203,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67923056</v>
+        <v>67923401</v>
       </c>
       <c r="B56" t="n">
-        <v>98520</v>
+        <v>88896</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7221,41 +7215,48 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222498</v>
+        <v>720</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>710647.7756487913</v>
+        <v>710778.0624229729</v>
       </c>
       <c r="R56" t="n">
-        <v>6655033.866605811</v>
+        <v>6654996.166127681</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7306,6 +7307,7 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7324,7 +7326,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67923401</v>
+        <v>67923144</v>
       </c>
       <c r="B57" t="n">
         <v>88896</v>
@@ -7374,10 +7376,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>710778.0624229729</v>
+        <v>710743.1378960274</v>
       </c>
       <c r="R57" t="n">
-        <v>6654996.166127681</v>
+        <v>6655070.919071259</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7420,6 +7422,11 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7447,10 +7454,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67923144</v>
+        <v>67923565</v>
       </c>
       <c r="B58" t="n">
-        <v>88896</v>
+        <v>98520</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7459,48 +7466,41 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>720</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>710743.1378960274</v>
+        <v>710730.7563827271</v>
       </c>
       <c r="R58" t="n">
-        <v>6655070.919071259</v>
+        <v>6654847.984748601</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7545,18 +7545,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7575,10 +7569,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67923565</v>
+        <v>67922986</v>
       </c>
       <c r="B59" t="n">
-        <v>98520</v>
+        <v>90665</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7591,37 +7585,36 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>710730.7563827271</v>
+        <v>710597.8099508889</v>
       </c>
       <c r="R59" t="n">
-        <v>6654847.984748601</v>
+        <v>6655064.119366875</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7666,12 +7659,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7690,10 +7689,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67922986</v>
+        <v>67923194</v>
       </c>
       <c r="B60" t="n">
-        <v>90665</v>
+        <v>90661</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7702,29 +7701,37 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4366</v>
+        <v>2058</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7732,10 +7739,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>710597.8099508889</v>
+        <v>710806.226207343</v>
       </c>
       <c r="R60" t="n">
-        <v>6655064.119366875</v>
+        <v>6655030.884246182</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7810,7 +7817,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67923194</v>
+        <v>69614369</v>
       </c>
       <c r="B61" t="n">
         <v>90661</v>
@@ -7845,12 +7852,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -7860,10 +7867,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>710806.226207343</v>
+        <v>710645.831223921</v>
       </c>
       <c r="R61" t="n">
-        <v>6655030.884246182</v>
+        <v>6655050.309213332</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -7890,7 +7897,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2017-09-29</t>
+          <t>2017-09-16</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7900,7 +7907,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2017-09-29</t>
+          <t>2017-09-16</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7910,7 +7917,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
+          <t>Exkursion med Stockholms svampvänner och Kristoffer Stighäll</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7926,22 +7933,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Kristoffer Stighäll, Hans von Eichwald, Micael Söderman, Niklas Hjort</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69614369</v>
+        <v>69614343</v>
       </c>
       <c r="B62" t="n">
-        <v>90661</v>
+        <v>88896</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7954,21 +7961,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2058</v>
+        <v>720</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7988,10 +7995,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>710645.831223921</v>
+        <v>710785.4504527128</v>
       </c>
       <c r="R62" t="n">
-        <v>6655050.309213332</v>
+        <v>6655060.295755523</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -8066,10 +8073,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>69614343</v>
+        <v>69614320</v>
       </c>
       <c r="B63" t="n">
-        <v>88896</v>
+        <v>88886</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8078,37 +8085,29 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>720</v>
+        <v>3286</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8116,10 +8115,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>710785.4504527128</v>
+        <v>710742.1185881239</v>
       </c>
       <c r="R63" t="n">
-        <v>6655060.295755523</v>
+        <v>6655027.21914816</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -8194,10 +8193,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>69614320</v>
+        <v>69614378</v>
       </c>
       <c r="B64" t="n">
-        <v>88886</v>
+        <v>90661</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8206,29 +8205,37 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3286</v>
+        <v>2058</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8236,10 +8243,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>710742.1185881239</v>
+        <v>710797.9978022416</v>
       </c>
       <c r="R64" t="n">
-        <v>6655027.21914816</v>
+        <v>6655025.39743646</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -8314,10 +8321,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>69614378</v>
+        <v>69614347</v>
       </c>
       <c r="B65" t="n">
-        <v>90661</v>
+        <v>88896</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8330,21 +8337,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2058</v>
+        <v>720</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -8364,10 +8371,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>710797.9978022416</v>
+        <v>710779.6804802697</v>
       </c>
       <c r="R65" t="n">
-        <v>6655025.39743646</v>
+        <v>6655011.809318424</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -8442,10 +8449,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>69614347</v>
+        <v>69614370</v>
       </c>
       <c r="B66" t="n">
-        <v>88896</v>
+        <v>90661</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8458,21 +8465,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8492,10 +8499,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>710779.6804802697</v>
+        <v>710732.7604936484</v>
       </c>
       <c r="R66" t="n">
-        <v>6655011.809318424</v>
+        <v>6655032.703797887</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -8570,10 +8577,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>69614370</v>
+        <v>69614355</v>
       </c>
       <c r="B67" t="n">
-        <v>90661</v>
+        <v>88896</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8586,21 +8593,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2058</v>
+        <v>720</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -8616,14 +8623,14 @@
       <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Blöte, SO om, Upl</t>
+          <t>Blöte. SO om, Upl</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>710732.7604936484</v>
+        <v>710774.3849942645</v>
       </c>
       <c r="R67" t="n">
-        <v>6655032.703797887</v>
+        <v>6654998.965700288</v>
       </c>
       <c r="S67" t="n">
         <v>5</v>
@@ -8698,7 +8705,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>69614355</v>
+        <v>69614329</v>
       </c>
       <c r="B68" t="n">
         <v>88896</v>
@@ -8744,14 +8751,14 @@
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Blöte. SO om, Upl</t>
+          <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>710774.3849942645</v>
+        <v>710797.9978022416</v>
       </c>
       <c r="R68" t="n">
-        <v>6654998.965700288</v>
+        <v>6655025.39743646</v>
       </c>
       <c r="S68" t="n">
         <v>5</v>
@@ -8826,10 +8833,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>69614329</v>
+        <v>69614362</v>
       </c>
       <c r="B69" t="n">
-        <v>88896</v>
+        <v>90645</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8838,25 +8845,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -8876,10 +8883,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>710797.9978022416</v>
+        <v>710755.3203918817</v>
       </c>
       <c r="R69" t="n">
-        <v>6655025.39743646</v>
+        <v>6654945.705376616</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
@@ -8954,10 +8961,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69614362</v>
+        <v>69614339</v>
       </c>
       <c r="B70" t="n">
-        <v>90645</v>
+        <v>88896</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8966,25 +8973,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4361</v>
+        <v>720</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -9004,10 +9011,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>710755.3203918817</v>
+        <v>710716.5771621495</v>
       </c>
       <c r="R70" t="n">
-        <v>6654945.705376616</v>
+        <v>6655043.316270623</v>
       </c>
       <c r="S70" t="n">
         <v>5</v>
@@ -9082,10 +9089,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69614339</v>
+        <v>69614357</v>
       </c>
       <c r="B71" t="n">
-        <v>88896</v>
+        <v>90645</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9094,25 +9101,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -9132,10 +9139,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>710716.5771621495</v>
+        <v>710741.2693301686</v>
       </c>
       <c r="R71" t="n">
-        <v>6655043.316270623</v>
+        <v>6654962.961262135</v>
       </c>
       <c r="S71" t="n">
         <v>5</v>
@@ -9210,10 +9217,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>69614357</v>
+        <v>69614332</v>
       </c>
       <c r="B72" t="n">
-        <v>90645</v>
+        <v>88896</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9222,25 +9229,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4361</v>
+        <v>720</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -9260,10 +9267,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>710741.2693301686</v>
+        <v>710686.7403338499</v>
       </c>
       <c r="R72" t="n">
-        <v>6654962.961262135</v>
+        <v>6655029.070320031</v>
       </c>
       <c r="S72" t="n">
         <v>5</v>
@@ -9338,10 +9345,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>69614332</v>
+        <v>69614366</v>
       </c>
       <c r="B73" t="n">
-        <v>88896</v>
+        <v>90671</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9350,25 +9357,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>720</v>
+        <v>4368</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -9388,10 +9395,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>710686.7403338499</v>
+        <v>710755.3203918817</v>
       </c>
       <c r="R73" t="n">
-        <v>6655029.070320031</v>
+        <v>6654945.705376616</v>
       </c>
       <c r="S73" t="n">
         <v>5</v>
@@ -9466,10 +9473,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>69614366</v>
+        <v>69614374</v>
       </c>
       <c r="B74" t="n">
-        <v>90671</v>
+        <v>90661</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9478,25 +9485,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4368</v>
+        <v>2058</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -9516,10 +9523,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>710755.3203918817</v>
+        <v>710799.6443425636</v>
       </c>
       <c r="R74" t="n">
-        <v>6654945.705376616</v>
+        <v>6655040.540524459</v>
       </c>
       <c r="S74" t="n">
         <v>5</v>
@@ -9594,7 +9601,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>69614374</v>
+        <v>69614379</v>
       </c>
       <c r="B75" t="n">
         <v>90661</v>
@@ -9640,14 +9647,14 @@
       <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Blöte, SO om, Upl</t>
+          <t>Bornan, SO om, Upl</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>710799.6443425636</v>
+        <v>710763.1812392919</v>
       </c>
       <c r="R75" t="n">
-        <v>6655040.540524459</v>
+        <v>6655010.364424504</v>
       </c>
       <c r="S75" t="n">
         <v>5</v>
@@ -9722,10 +9729,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>69614379</v>
+        <v>69614327</v>
       </c>
       <c r="B76" t="n">
-        <v>90661</v>
+        <v>88896</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9738,21 +9745,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2058</v>
+        <v>720</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9768,14 +9775,14 @@
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Bornan, SO om, Upl</t>
+          <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>710763.1812392919</v>
+        <v>710732.7604936484</v>
       </c>
       <c r="R76" t="n">
-        <v>6655010.364424504</v>
+        <v>6655032.703797887</v>
       </c>
       <c r="S76" t="n">
         <v>5</v>
@@ -9850,7 +9857,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>69614327</v>
+        <v>69614352</v>
       </c>
       <c r="B77" t="n">
         <v>88896</v>
@@ -9900,10 +9907,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>710732.7604936484</v>
+        <v>710757.228285668</v>
       </c>
       <c r="R77" t="n">
-        <v>6655032.703797887</v>
+        <v>6655009.02084529</v>
       </c>
       <c r="S77" t="n">
         <v>5</v>
@@ -9978,10 +9985,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>69614352</v>
+        <v>69614364</v>
       </c>
       <c r="B78" t="n">
-        <v>88896</v>
+        <v>90645</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9990,25 +9997,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -10028,10 +10035,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>710757.228285668</v>
+        <v>710874.8245067496</v>
       </c>
       <c r="R78" t="n">
-        <v>6655009.02084529</v>
+        <v>6654973.607647975</v>
       </c>
       <c r="S78" t="n">
         <v>5</v>
@@ -10106,10 +10113,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>69614364</v>
+        <v>67923662</v>
       </c>
       <c r="B79" t="n">
-        <v>90645</v>
+        <v>5113</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -10118,48 +10125,47 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4361</v>
+        <v>100526</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>710874.8245067496</v>
+        <v>710873.757877128</v>
       </c>
       <c r="R79" t="n">
-        <v>6654973.607647975</v>
+        <v>6654798.971570624</v>
       </c>
       <c r="S79" t="n">
         <v>5</v>
@@ -10186,7 +10192,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2017-09-16</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -10196,7 +10202,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2017-09-16</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -10204,30 +10210,24 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>Exkursion med Stockholms svampvänner och Kristoffer Stighäll</t>
-        </is>
-      </c>
       <c r="AD79" t="b">
         <v>0</v>
       </c>
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Kristoffer Stighäll, Hans von Eichwald, Micael Söderman, Niklas Hjort</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>

--- a/artfynd/A 60019-2022.xlsx
+++ b/artfynd/A 60019-2022.xlsx
@@ -6205,10 +6205,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67923553</v>
+        <v>67923662</v>
       </c>
       <c r="B48" t="n">
-        <v>101680</v>
+        <v>5113</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6221,37 +6221,43 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222412</v>
+        <v>100526</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>710754.9979885226</v>
+        <v>710873.757877128</v>
       </c>
       <c r="R48" t="n">
-        <v>6654845.858781069</v>
+        <v>6654798.971570624</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6320,10 +6326,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67923090</v>
+        <v>67923553</v>
       </c>
       <c r="B49" t="n">
-        <v>90671</v>
+        <v>101680</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6332,48 +6338,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4368</v>
+        <v>222412</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>710737.8015434174</v>
+        <v>710754.9979885226</v>
       </c>
       <c r="R49" t="n">
-        <v>6655085.161134608</v>
+        <v>6654845.858781069</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6418,18 +6417,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6448,10 +6441,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67923474</v>
+        <v>67923090</v>
       </c>
       <c r="B50" t="n">
-        <v>90645</v>
+        <v>90671</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6464,21 +6457,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6498,10 +6491,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>710749.9838473836</v>
+        <v>710737.8015434174</v>
       </c>
       <c r="R50" t="n">
-        <v>6654959.947919866</v>
+        <v>6655085.161134608</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6576,10 +6569,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67923469</v>
+        <v>67923474</v>
       </c>
       <c r="B51" t="n">
-        <v>93235</v>
+        <v>90645</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6588,49 +6581,48 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>210</v>
+        <v>4361</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>kapslar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>710714.9107949209</v>
+        <v>710749.9838473836</v>
       </c>
       <c r="R51" t="n">
-        <v>6654966.972714037</v>
+        <v>6654959.947919866</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6677,7 +6669,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>På gammal rötskadad granlåga.</t>
+          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6686,6 +6678,7 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6704,10 +6697,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67922726</v>
+        <v>67923469</v>
       </c>
       <c r="B52" t="n">
-        <v>88896</v>
+        <v>93235</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6716,48 +6709,49 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>720</v>
+        <v>210</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>kapslar</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>710591.0552980765</v>
+        <v>710714.9107949209</v>
       </c>
       <c r="R52" t="n">
-        <v>6655059.218906204</v>
+        <v>6654966.972714037</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6804,7 +6798,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>I gammal barrblandskog nära hyggeskant.</t>
+          <t>På gammal rötskadad granlåga.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6813,7 +6807,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6832,7 +6825,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67923266</v>
+        <v>67922726</v>
       </c>
       <c r="B53" t="n">
         <v>88896</v>
@@ -6867,7 +6860,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6882,10 +6875,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>710774.9430098746</v>
+        <v>710591.0552980765</v>
       </c>
       <c r="R53" t="n">
-        <v>6654997.994331097</v>
+        <v>6655059.218906204</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6932,7 +6925,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
+          <t>I gammal barrblandskog nära hyggeskant.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6960,10 +6953,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>67923157</v>
+        <v>67923266</v>
       </c>
       <c r="B54" t="n">
-        <v>90661</v>
+        <v>88896</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6976,26 +6969,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2058</v>
+        <v>720</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -7010,10 +7003,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>710778.1940088882</v>
+        <v>710774.9430098746</v>
       </c>
       <c r="R54" t="n">
-        <v>6655037.809205553</v>
+        <v>6654997.994331097</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -7088,10 +7081,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>67923056</v>
+        <v>67923157</v>
       </c>
       <c r="B55" t="n">
-        <v>98520</v>
+        <v>90661</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7100,41 +7093,48 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
+        <v>2058</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>710647.7756487913</v>
+        <v>710778.1940088882</v>
       </c>
       <c r="R55" t="n">
-        <v>6655033.866605811</v>
+        <v>6655037.809205553</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -7179,12 +7179,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7203,10 +7209,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67923401</v>
+        <v>67923056</v>
       </c>
       <c r="B56" t="n">
-        <v>88896</v>
+        <v>98520</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7215,48 +7221,41 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>720</v>
+        <v>222498</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>710778.0624229729</v>
+        <v>710647.7756487913</v>
       </c>
       <c r="R56" t="n">
-        <v>6654996.166127681</v>
+        <v>6655033.866605811</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7307,7 +7306,6 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7326,7 +7324,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67923144</v>
+        <v>67923401</v>
       </c>
       <c r="B57" t="n">
         <v>88896</v>
@@ -7376,10 +7374,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>710743.1378960274</v>
+        <v>710778.0624229729</v>
       </c>
       <c r="R57" t="n">
-        <v>6655070.919071259</v>
+        <v>6654996.166127681</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7422,11 +7420,6 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7454,10 +7447,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67923565</v>
+        <v>67923144</v>
       </c>
       <c r="B58" t="n">
-        <v>98520</v>
+        <v>88896</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7466,41 +7459,48 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>720</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>710730.7563827271</v>
+        <v>710743.1378960274</v>
       </c>
       <c r="R58" t="n">
-        <v>6654847.984748601</v>
+        <v>6655070.919071259</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7545,12 +7545,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7569,10 +7575,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67922986</v>
+        <v>67923565</v>
       </c>
       <c r="B59" t="n">
-        <v>90665</v>
+        <v>98520</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7585,36 +7591,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>710597.8099508889</v>
+        <v>710730.7563827271</v>
       </c>
       <c r="R59" t="n">
-        <v>6655064.119366875</v>
+        <v>6654847.984748601</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7659,18 +7666,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7689,10 +7690,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67923194</v>
+        <v>67922986</v>
       </c>
       <c r="B60" t="n">
-        <v>90661</v>
+        <v>90665</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7701,37 +7702,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2058</v>
+        <v>4366</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7739,10 +7732,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>710806.226207343</v>
+        <v>710597.8099508889</v>
       </c>
       <c r="R60" t="n">
-        <v>6655030.884246182</v>
+        <v>6655064.119366875</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7817,7 +7810,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>69614369</v>
+        <v>67923194</v>
       </c>
       <c r="B61" t="n">
         <v>90661</v>
@@ -7852,12 +7845,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -7867,10 +7860,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>710645.831223921</v>
+        <v>710806.226207343</v>
       </c>
       <c r="R61" t="n">
-        <v>6655050.309213332</v>
+        <v>6655030.884246182</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -7897,7 +7890,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2017-09-16</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7907,7 +7900,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2017-09-16</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7917,7 +7910,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Exkursion med Stockholms svampvänner och Kristoffer Stighäll</t>
+          <t>Gammal barrblandskog på kalkhaltig småkuperad delvis småblockig mark. Delvis fuktdråg med försumpad skog. Mycket intressant kryptogamflora med bl.a. flera rödlistade marksvampar.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7933,22 +7926,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Kristoffer Stighäll, Hans von Eichwald, Micael Söderman, Niklas Hjort</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69614343</v>
+        <v>69614369</v>
       </c>
       <c r="B62" t="n">
-        <v>88896</v>
+        <v>90661</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7961,21 +7954,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7995,10 +7988,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>710785.4504527128</v>
+        <v>710645.831223921</v>
       </c>
       <c r="R62" t="n">
-        <v>6655060.295755523</v>
+        <v>6655050.309213332</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -8073,10 +8066,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>69614320</v>
+        <v>69614343</v>
       </c>
       <c r="B63" t="n">
-        <v>88886</v>
+        <v>88896</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8085,29 +8078,37 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3286</v>
+        <v>720</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8115,10 +8116,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>710742.1185881239</v>
+        <v>710785.4504527128</v>
       </c>
       <c r="R63" t="n">
-        <v>6655027.21914816</v>
+        <v>6655060.295755523</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -8193,10 +8194,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>69614378</v>
+        <v>69614320</v>
       </c>
       <c r="B64" t="n">
-        <v>90661</v>
+        <v>88886</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8205,37 +8206,29 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2058</v>
+        <v>3286</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8243,10 +8236,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>710797.9978022416</v>
+        <v>710742.1185881239</v>
       </c>
       <c r="R64" t="n">
-        <v>6655025.39743646</v>
+        <v>6655027.21914816</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -8321,10 +8314,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>69614347</v>
+        <v>69614378</v>
       </c>
       <c r="B65" t="n">
-        <v>88896</v>
+        <v>90661</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8337,21 +8330,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -8371,10 +8364,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>710779.6804802697</v>
+        <v>710797.9978022416</v>
       </c>
       <c r="R65" t="n">
-        <v>6655011.809318424</v>
+        <v>6655025.39743646</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -8449,10 +8442,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>69614370</v>
+        <v>69614347</v>
       </c>
       <c r="B66" t="n">
-        <v>90661</v>
+        <v>88896</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8465,21 +8458,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2058</v>
+        <v>720</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8499,10 +8492,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>710732.7604936484</v>
+        <v>710779.6804802697</v>
       </c>
       <c r="R66" t="n">
-        <v>6655032.703797887</v>
+        <v>6655011.809318424</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -8577,10 +8570,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>69614355</v>
+        <v>69614370</v>
       </c>
       <c r="B67" t="n">
-        <v>88896</v>
+        <v>90661</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8593,21 +8586,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -8623,14 +8616,14 @@
       <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Blöte. SO om, Upl</t>
+          <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>710774.3849942645</v>
+        <v>710732.7604936484</v>
       </c>
       <c r="R67" t="n">
-        <v>6654998.965700288</v>
+        <v>6655032.703797887</v>
       </c>
       <c r="S67" t="n">
         <v>5</v>
@@ -8705,7 +8698,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>69614329</v>
+        <v>69614355</v>
       </c>
       <c r="B68" t="n">
         <v>88896</v>
@@ -8751,14 +8744,14 @@
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Blöte, SO om, Upl</t>
+          <t>Blöte. SO om, Upl</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>710797.9978022416</v>
+        <v>710774.3849942645</v>
       </c>
       <c r="R68" t="n">
-        <v>6655025.39743646</v>
+        <v>6654998.965700288</v>
       </c>
       <c r="S68" t="n">
         <v>5</v>
@@ -8833,10 +8826,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>69614362</v>
+        <v>69614329</v>
       </c>
       <c r="B69" t="n">
-        <v>90645</v>
+        <v>88896</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8845,25 +8838,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4361</v>
+        <v>720</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -8883,10 +8876,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>710755.3203918817</v>
+        <v>710797.9978022416</v>
       </c>
       <c r="R69" t="n">
-        <v>6654945.705376616</v>
+        <v>6655025.39743646</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
@@ -8961,10 +8954,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69614339</v>
+        <v>69614362</v>
       </c>
       <c r="B70" t="n">
-        <v>88896</v>
+        <v>90645</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8973,25 +8966,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -9011,10 +9004,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>710716.5771621495</v>
+        <v>710755.3203918817</v>
       </c>
       <c r="R70" t="n">
-        <v>6655043.316270623</v>
+        <v>6654945.705376616</v>
       </c>
       <c r="S70" t="n">
         <v>5</v>
@@ -9089,10 +9082,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69614357</v>
+        <v>69614339</v>
       </c>
       <c r="B71" t="n">
-        <v>90645</v>
+        <v>88896</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9101,25 +9094,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4361</v>
+        <v>720</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -9139,10 +9132,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>710741.2693301686</v>
+        <v>710716.5771621495</v>
       </c>
       <c r="R71" t="n">
-        <v>6654962.961262135</v>
+        <v>6655043.316270623</v>
       </c>
       <c r="S71" t="n">
         <v>5</v>
@@ -9217,10 +9210,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>69614332</v>
+        <v>69614357</v>
       </c>
       <c r="B72" t="n">
-        <v>88896</v>
+        <v>90645</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9229,25 +9222,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -9267,10 +9260,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>710686.7403338499</v>
+        <v>710741.2693301686</v>
       </c>
       <c r="R72" t="n">
-        <v>6655029.070320031</v>
+        <v>6654962.961262135</v>
       </c>
       <c r="S72" t="n">
         <v>5</v>
@@ -9345,10 +9338,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>69614366</v>
+        <v>69614332</v>
       </c>
       <c r="B73" t="n">
-        <v>90671</v>
+        <v>88896</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9357,25 +9350,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4368</v>
+        <v>720</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -9395,10 +9388,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>710755.3203918817</v>
+        <v>710686.7403338499</v>
       </c>
       <c r="R73" t="n">
-        <v>6654945.705376616</v>
+        <v>6655029.070320031</v>
       </c>
       <c r="S73" t="n">
         <v>5</v>
@@ -9473,10 +9466,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>69614374</v>
+        <v>69614366</v>
       </c>
       <c r="B74" t="n">
-        <v>90661</v>
+        <v>90671</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9485,25 +9478,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2058</v>
+        <v>4368</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -9523,10 +9516,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>710799.6443425636</v>
+        <v>710755.3203918817</v>
       </c>
       <c r="R74" t="n">
-        <v>6655040.540524459</v>
+        <v>6654945.705376616</v>
       </c>
       <c r="S74" t="n">
         <v>5</v>
@@ -9601,7 +9594,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>69614379</v>
+        <v>69614374</v>
       </c>
       <c r="B75" t="n">
         <v>90661</v>
@@ -9647,14 +9640,14 @@
       <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Bornan, SO om, Upl</t>
+          <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>710763.1812392919</v>
+        <v>710799.6443425636</v>
       </c>
       <c r="R75" t="n">
-        <v>6655010.364424504</v>
+        <v>6655040.540524459</v>
       </c>
       <c r="S75" t="n">
         <v>5</v>
@@ -9729,10 +9722,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>69614327</v>
+        <v>69614379</v>
       </c>
       <c r="B76" t="n">
-        <v>88896</v>
+        <v>90661</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9745,21 +9738,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9775,14 +9768,14 @@
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Blöte, SO om, Upl</t>
+          <t>Bornan, SO om, Upl</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>710732.7604936484</v>
+        <v>710763.1812392919</v>
       </c>
       <c r="R76" t="n">
-        <v>6655032.703797887</v>
+        <v>6655010.364424504</v>
       </c>
       <c r="S76" t="n">
         <v>5</v>
@@ -9857,7 +9850,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>69614352</v>
+        <v>69614327</v>
       </c>
       <c r="B77" t="n">
         <v>88896</v>
@@ -9907,10 +9900,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>710757.228285668</v>
+        <v>710732.7604936484</v>
       </c>
       <c r="R77" t="n">
-        <v>6655009.02084529</v>
+        <v>6655032.703797887</v>
       </c>
       <c r="S77" t="n">
         <v>5</v>
@@ -9985,10 +9978,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>69614364</v>
+        <v>69614352</v>
       </c>
       <c r="B78" t="n">
-        <v>90645</v>
+        <v>88896</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9997,25 +9990,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4361</v>
+        <v>720</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -10035,10 +10028,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>710874.8245067496</v>
+        <v>710757.228285668</v>
       </c>
       <c r="R78" t="n">
-        <v>6654973.607647975</v>
+        <v>6655009.02084529</v>
       </c>
       <c r="S78" t="n">
         <v>5</v>
@@ -10113,10 +10106,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>67923662</v>
+        <v>69614364</v>
       </c>
       <c r="B79" t="n">
-        <v>5113</v>
+        <v>90645</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -10125,47 +10118,48 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100526</v>
+        <v>4361</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Blöte, SO om, Upl</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>710873.757877128</v>
+        <v>710874.8245067496</v>
       </c>
       <c r="R79" t="n">
-        <v>6654798.971570624</v>
+        <v>6654973.607647975</v>
       </c>
       <c r="S79" t="n">
         <v>5</v>
@@ -10192,7 +10186,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2017-09-29</t>
+          <t>2017-09-16</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -10202,7 +10196,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2017-09-29</t>
+          <t>2017-09-16</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -10210,24 +10204,30 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Exkursion med Stockholms svampvänner och Kristoffer Stighäll</t>
+        </is>
+      </c>
       <c r="AD79" t="b">
         <v>0</v>
       </c>
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Kristoffer Stighäll, Hans von Eichwald, Micael Söderman, Niklas Hjort</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
